--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\Fiero Headlight Controller\KiCAD Remake Public Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68B1A3E-9D97-476E-8655-1B84B8BA87B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6439EA4-7958-4C33-8254-95A77C095BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Component</t>
   </si>
@@ -52,10 +52,6 @@
 Current Sensor Module</t>
   </si>
   <si>
-    <t>Sold as a 2-pack. You will need to desolder the right angle pins and 
-terminals. The modules will connected to the board by soldered pin headers.</t>
-  </si>
-  <si>
     <t>JQC-3FF-S-Z 12V Relay</t>
   </si>
   <si>
@@ -135,13 +131,145 @@
   </si>
   <si>
     <t>You can cost save on this by using a 5-pin for both sides, but be SURE to label everything extensively so you don't plug the module in backwards. I'd just spend the extra money to make it foolproof.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/1724480006/5116920</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Nicer alternative to soldering the waterproof connectors directly to the PCB.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/1724480004/5116919</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0469920410/5116008</t>
+  </si>
+  <si>
+    <t>Molex 0469920410 Connector</t>
+  </si>
+  <si>
+    <t>Matching connector for 1724480004</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0469920610/5116009</t>
+  </si>
+  <si>
+    <t>Molex 0469920610 Connector</t>
+  </si>
+  <si>
+    <t>Matching connector for 1724480006</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0039000060/1118558</t>
+  </si>
+  <si>
+    <t>Molex 0039000060 Crimp-On Pins</t>
+  </si>
+  <si>
+    <t>Sold as a 2-pack. You will need to desolder the right angle pins and terminals. The modules will connected to the board by soldered pin headers.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optional
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These items are optional, but will give you a much more polished installation. Specialized crimper required.</t>
+    </r>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>U2, U3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4</t>
+  </si>
+  <si>
+    <t>CR1, CR2,CR3,CR4, CR5</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
+    <t>R2, R4, R5, R6, R7, R8, R9</t>
+  </si>
+  <si>
+    <t>R1, R3, R10</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>Molex 1724480006 6-pin Header</t>
+  </si>
+  <si>
+    <t>Molex 1724480004 4-pin Header</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Original project called for SRD-05VDC-SL-C relays.
+I specced these alternatives for their higher current rating for worst case scenarios.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crimp-on pins required for the above connectors.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Requiures a crimper such as https://www.amazon.com/dp/B08CZDRV4N
+A normal butt splice crimper will not work for these!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +288,22 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -205,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +359,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,226 +648,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
+    </row>
+    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:D17"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{168D27C3-D85D-4837-8BF2-C813567B5BE1}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{18EB6B57-B85A-4EC8-BD44-233D0DA32220}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{C6FD616C-44B2-4124-8A9E-8309831C9B06}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{BBD0C43E-A38B-45EF-8282-9550DA527B58}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{7D6045EC-ED5E-4AB8-BEBE-95B23C33BB6E}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{9AFDDD65-7531-4A8A-86AC-CFDD37DFCE8F}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{F42AFED8-C3DC-4655-BE1C-D7C212786D3E}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{FD0E5A21-EB16-4DFD-BD4D-DA20F266A882}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{58FA6AFD-B7D9-456E-B5C9-6C7479D1E597}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{EDE92592-F162-42E8-8AF5-AD0F88FE4E8A}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{62184DB3-88F5-464D-8173-950436F4FBAD}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{8AB57890-5588-42ED-898F-7FD93F68DA55}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{5339FCCC-062A-4047-B4E5-B4195DECE756}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{6C4EB022-E7FA-4E86-87B8-1DAE8FF11132}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{168D27C3-D85D-4837-8BF2-C813567B5BE1}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{18EB6B57-B85A-4EC8-BD44-233D0DA32220}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{C6FD616C-44B2-4124-8A9E-8309831C9B06}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{BBD0C43E-A38B-45EF-8282-9550DA527B58}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{7D6045EC-ED5E-4AB8-BEBE-95B23C33BB6E}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{9AFDDD65-7531-4A8A-86AC-CFDD37DFCE8F}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{F42AFED8-C3DC-4655-BE1C-D7C212786D3E}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{FD0E5A21-EB16-4DFD-BD4D-DA20F266A882}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{58FA6AFD-B7D9-456E-B5C9-6C7479D1E597}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{EDE92592-F162-42E8-8AF5-AD0F88FE4E8A}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{62184DB3-88F5-464D-8173-950436F4FBAD}"/>
+    <hyperlink ref="D5" r:id="rId12" xr:uid="{8AB57890-5588-42ED-898F-7FD93F68DA55}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{5339FCCC-062A-4047-B4E5-B4195DECE756}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{6C4EB022-E7FA-4E86-87B8-1DAE8FF11132}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{C9F09EE5-4D5F-40C8-BF69-F851F18AFBA4}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{7631671A-0B61-44AF-9DFD-ACC4C1E437D4}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{3AD99C84-DEFB-4283-A663-909043A150DD}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{EF288CC0-F754-4DFD-B4C6-F6F8CA60D93E}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{FA3BCAF8-C9DF-4B44-B7FC-31260C2635F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\Fiero Headlight Controller\KiCAD Remake Public Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6439EA4-7958-4C33-8254-95A77C095BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276F78E-EE67-4E64-A93C-D239AAA495B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Component</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Arduino Nano</t>
-  </si>
-  <si>
-    <t>Cheaper third-party alternatives are available, if you trust them.</t>
   </si>
   <si>
     <t>HiLetgo 2pcs ACS712 30A
@@ -263,6 +260,22 @@
       <t>Requiures a crimper such as https://www.amazon.com/dp/B08CZDRV4N
 A normal butt splice crimper will not work for these!</t>
     </r>
+  </si>
+  <si>
+    <t>Cheaper third-party alternatives are available, if you trust them.
+I personally used this clone board: https://www.amazon.com/dp/B09KGVDXZY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08DVGCTKT</t>
+  </si>
+  <si>
+    <t>2.54mm Breakaway Header/Pins</t>
+  </si>
+  <si>
+    <t>A1, U2, U3</t>
+  </si>
+  <si>
+    <t>Used to socket the Arduino and also to mount the current sensors. For current sensors, you will use 4 segments of 3-pin connector. For two of them, remove the middle pin. You'll see where they go.</t>
   </si>
 </sst>
 </file>
@@ -349,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -366,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -676,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -685,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -693,331 +709,348 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+      <c r="E3" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="D22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
+      <c r="E24" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D16" r:id="rId1" xr:uid="{168D27C3-D85D-4837-8BF2-C813567B5BE1}"/>
@@ -1034,11 +1067,11 @@
     <hyperlink ref="D5" r:id="rId12" xr:uid="{8AB57890-5588-42ED-898F-7FD93F68DA55}"/>
     <hyperlink ref="D4" r:id="rId13" xr:uid="{5339FCCC-062A-4047-B4E5-B4195DECE756}"/>
     <hyperlink ref="D3" r:id="rId14" xr:uid="{6C4EB022-E7FA-4E86-87B8-1DAE8FF11132}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{C9F09EE5-4D5F-40C8-BF69-F851F18AFBA4}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{7631671A-0B61-44AF-9DFD-ACC4C1E437D4}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{3AD99C84-DEFB-4283-A663-909043A150DD}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{EF288CC0-F754-4DFD-B4C6-F6F8CA60D93E}"/>
-    <hyperlink ref="D23" r:id="rId19" xr:uid="{FA3BCAF8-C9DF-4B44-B7FC-31260C2635F4}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{C9F09EE5-4D5F-40C8-BF69-F851F18AFBA4}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{7631671A-0B61-44AF-9DFD-ACC4C1E437D4}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{3AD99C84-DEFB-4283-A663-909043A150DD}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{EF288CC0-F754-4DFD-B4C6-F6F8CA60D93E}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{FA3BCAF8-C9DF-4B44-B7FC-31260C2635F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
